--- a/api/resources/excel/Link/LinkWorkbook.xlsx
+++ b/api/resources/excel/Link/LinkWorkbook.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="lw_summary" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="lw_links" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="link_summary_sheet" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="link_sheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -92,7 +92,7 @@
     <t>total_commission</t>
   </si>
   <si>
-    <t>links_table</t>
+    <t>link_table</t>
   </si>
   <si>
     <t>link_name</t>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -138,6 +138,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -236,6 +242,7 @@
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -965,6 +972,9 @@
         <v>9127.0</v>
       </c>
     </row>
+    <row r="28">
+      <c r="E28" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
